--- a/model/Auswertung/Fließtext/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen/results.xlsx
@@ -569,43 +569,43 @@
         <v>3580</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64245810055866</v>
+        <v>4.189944134078212</v>
       </c>
       <c r="D3" t="n">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="E3" t="n">
         <v>597</v>
       </c>
       <c r="F3" t="n">
-        <v>11.39028475711893</v>
+        <v>9.882747068676718</v>
       </c>
       <c r="G3" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H3" t="n">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I3" t="n">
         <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.931323283082077</v>
+        <v>0.9246231155778895</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9644405897658282</v>
+        <v>0.9608355091383812</v>
       </c>
       <c r="N3" t="n">
-        <v>99.73908515550643</v>
+        <v>99.77473596358367</v>
       </c>
       <c r="O3" t="n">
-        <v>81.14541918308208</v>
+        <v>81.06500944915069</v>
       </c>
     </row>
     <row r="4">

--- a/model/Auswertung/Fließtext/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen/results.xlsx
@@ -517,28 +517,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606</v>
+        <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>2.303860523038605</v>
+        <v>2.103250478011472</v>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
-        <v>10.09174311926606</v>
+        <v>10.18518518518519</v>
       </c>
       <c r="G2" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H2" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>18</v>
@@ -547,16 +547,16 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9174311926605505</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9569377990430622</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="N2" t="n">
-        <v>96.48844190409319</v>
+        <v>96.20176904042155</v>
       </c>
       <c r="O2" t="n">
-        <v>82.15011083598797</v>
+        <v>81.980268590432</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3580</v>
+        <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>4.189944134078212</v>
+        <v>2.574370709382151</v>
       </c>
       <c r="D3" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E3" t="n">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F3" t="n">
-        <v>9.882747068676718</v>
+        <v>4.067796610169491</v>
       </c>
       <c r="G3" t="n">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="H3" t="n">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9246231155778895</v>
+        <v>0.976271186440678</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9608355091383812</v>
+        <v>0.9879931389365352</v>
       </c>
       <c r="N3" t="n">
-        <v>99.77473596358367</v>
+        <v>99.75815502934864</v>
       </c>
       <c r="O3" t="n">
-        <v>81.06500944915069</v>
+        <v>91.72297176823514</v>
       </c>
     </row>
     <row r="4">
@@ -615,28 +615,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1363</v>
+        <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>27.21936903888481</v>
+        <v>26.97220135236664</v>
       </c>
       <c r="D4" t="n">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E4" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F4" t="n">
-        <v>35.26315789473684</v>
+        <v>33.69565217391305</v>
       </c>
       <c r="G4" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
         <v>11</v>
@@ -645,16 +645,16 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6526315789473685</v>
+        <v>0.6684782608695652</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7898089171974523</v>
+        <v>0.8013029315960912</v>
       </c>
       <c r="N4" t="n">
-        <v>80.13208456535025</v>
+        <v>79.83823585839237</v>
       </c>
       <c r="O4" t="n">
-        <v>50.14074728236989</v>
+        <v>52.59366130866994</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3133</v>
+        <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>3.255665496329397</v>
+        <v>3.197389885807504</v>
       </c>
       <c r="D5" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E5" t="n">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F5" t="n">
-        <v>14.61187214611872</v>
+        <v>14.67889908256881</v>
       </c>
       <c r="G5" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H5" t="n">
         <v>428</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
         <v>0.9846938775510204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8812785388127854</v>
+        <v>0.8853211009174312</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9301204819277108</v>
+        <v>0.9323671497584541</v>
       </c>
       <c r="N5" t="n">
-        <v>94.44825505684253</v>
+        <v>94.40117434030377</v>
       </c>
       <c r="O5" t="n">
-        <v>71.87341280011694</v>
+        <v>71.9014109540706</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1549</v>
+        <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>3.29244673983215</v>
+        <v>3.208556149732621</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F6" t="n">
-        <v>12.74509803921569</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="G6" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H6" t="n">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9068627450980392</v>
+        <v>0.9040404040404041</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9511568123393316</v>
+        <v>0.9496021220159151</v>
       </c>
       <c r="N6" t="n">
-        <v>94.49596506034663</v>
+        <v>94.41440122825003</v>
       </c>
       <c r="O6" t="n">
-        <v>75.49780874093611</v>
+        <v>76.98852071364179</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2129</v>
+        <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>52.70079849694692</v>
+        <v>52.59259259259259</v>
       </c>
       <c r="D7" t="n">
-        <v>1122</v>
+        <v>1065</v>
       </c>
       <c r="E7" t="n">
         <v>268</v>
       </c>
       <c r="F7" t="n">
-        <v>77.98507462686567</v>
+        <v>74.6268656716418</v>
       </c>
       <c r="G7" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H7" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I7" t="n">
         <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8905472636815921</v>
+        <v>0.8720379146919431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.667910447761194</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7633262260127932</v>
+        <v>0.7682672233820459</v>
       </c>
       <c r="N7" t="n">
-        <v>70.04562987971001</v>
+        <v>68.19210750986966</v>
       </c>
       <c r="O7" t="n">
-        <v>36.77775072030908</v>
+        <v>37.98041397875487</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2814</v>
+        <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>1.847903340440654</v>
+        <v>1.77923021060276</v>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F8" t="n">
-        <v>6.595744680851063</v>
+        <v>5.831533477321814</v>
       </c>
       <c r="G8" t="n">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H8" t="n">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9553191489361702</v>
+        <v>0.9611231101511879</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9771490750816104</v>
+        <v>0.9801762114537445</v>
       </c>
       <c r="N8" t="n">
-        <v>99.6700266213755</v>
+        <v>99.65532131309313</v>
       </c>
       <c r="O8" t="n">
-        <v>87.86614566164053</v>
+        <v>89.05771575327937</v>
       </c>
     </row>
     <row r="9">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2140</v>
+        <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>1.728971962616822</v>
+        <v>1.752723827569872</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
       </c>
       <c r="E9" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F9" t="n">
-        <v>4.518072289156627</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="G9" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H9" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>12</v>
@@ -890,16 +890,16 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9608433734939759</v>
+        <v>0.9606060606060606</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9800307219662059</v>
+        <v>0.9799072642967542</v>
       </c>
       <c r="N9" t="n">
-        <v>99.01983012897679</v>
+        <v>99.27556101003987</v>
       </c>
       <c r="O9" t="n">
-        <v>90.51477028300073</v>
+        <v>90.45630428186581</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Fließtext/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>2.103250478011472</v>
+        <v>1555</v>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.65710643722116</v>
+      </c>
+      <c r="G2" t="n">
         <v>216</v>
       </c>
-      <c r="F2" t="n">
-        <v>10.18518518518519</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>198</v>
       </c>
-      <c r="H2" t="n">
-        <v>210</v>
-      </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9.722222222222223</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.944444444444445</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="P2" t="n">
+        <v>94.44444444444444</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>96.20176904042155</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>81.980268590432</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>2.574370709382151</v>
+        <v>3462</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.630434782608696</v>
+      </c>
+      <c r="G3" t="n">
         <v>590</v>
       </c>
-      <c r="F3" t="n">
-        <v>4.067796610169491</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>571</v>
       </c>
-      <c r="H3" t="n">
-        <v>579</v>
-      </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>573</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.864406779661017</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.525423728813559</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>96.77966101694915</v>
+      </c>
+      <c r="P3" t="n">
+        <v>97.11864406779661</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.976271186440678</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9879931389365352</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>99.75815502934864</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>91.72297176823514</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>26.97220135236664</v>
+        <v>1017</v>
       </c>
       <c r="D4" t="n">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.6664162283997</v>
+      </c>
+      <c r="G4" t="n">
         <v>184</v>
       </c>
-      <c r="F4" t="n">
-        <v>33.69565217391305</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>123</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>129</v>
       </c>
-      <c r="I4" t="n">
-        <v>44</v>
-      </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26.08695652173913</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22.82608695652174</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>66.84782608695652</v>
+      </c>
+      <c r="P4" t="n">
+        <v>70.10869565217391</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.6684782608695652</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.8013029315960912</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>79.83823585839237</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>52.59366130866994</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>3.197389885807504</v>
+        <v>3046</v>
       </c>
       <c r="D5" t="n">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
+        <v>26</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.468189233278956</v>
+      </c>
+      <c r="G5" t="n">
         <v>436</v>
       </c>
-      <c r="F5" t="n">
-        <v>14.67889908256881</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>384</v>
       </c>
-      <c r="H5" t="n">
-        <v>428</v>
-      </c>
       <c r="I5" t="n">
+        <v>405</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
         <v>28</v>
       </c>
-      <c r="J5" t="n">
-        <v>51</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>12.15596330275229</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.339449541284404</v>
+      </c>
+      <c r="N5" t="n">
+        <v>21</v>
+      </c>
+      <c r="O5" t="n">
+        <v>88.07339449541286</v>
+      </c>
+      <c r="P5" t="n">
+        <v>92.88990825688074</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.9846938775510204</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.8853211009174312</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.9323671497584541</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>94.40117434030377</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>71.9014109540706</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>3.208556149732621</v>
+        <v>1468</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.941176470588235</v>
+      </c>
+      <c r="G6" t="n">
         <v>198</v>
       </c>
-      <c r="F6" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>176</v>
       </c>
-      <c r="H6" t="n">
-        <v>189</v>
-      </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
+        <v>7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.595959595959595</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="P6" t="n">
+        <v>92.92929292929293</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.9040404040404041</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9496021220159151</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>94.41440122825003</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>76.98852071364179</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>52.59259259259259</v>
+        <v>1981</v>
       </c>
       <c r="D7" t="n">
-        <v>1065</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
+        <v>793</v>
+      </c>
+      <c r="F7" t="n">
+        <v>41.33333333333334</v>
+      </c>
+      <c r="G7" t="n">
         <v>268</v>
       </c>
-      <c r="F7" t="n">
-        <v>74.6268656716418</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>191</v>
       </c>
-      <c r="H7" t="n">
-        <v>235</v>
-      </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="J7" t="n">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
+        <v>142</v>
+      </c>
+      <c r="L7" t="n">
+        <v>58.95522388059702</v>
+      </c>
+      <c r="M7" t="n">
+        <v>57.46268656716418</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>71.26865671641791</v>
+      </c>
+      <c r="P7" t="n">
+        <v>72.76119402985076</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.8720379146919431</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.6865671641791045</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.7682672233820459</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>68.19210750986966</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>37.98041397875487</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>1.77923021060276</v>
+        <v>2726</v>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.161946259985476</v>
+      </c>
+      <c r="G8" t="n">
         <v>463</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.831533477321814</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>439</v>
       </c>
-      <c r="H8" t="n">
-        <v>451</v>
-      </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.591792656587473</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.375809935205184</v>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
+        <v>94.81641468682506</v>
+      </c>
+      <c r="P8" t="n">
+        <v>95.03239740820734</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.9611231101511879</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.9801762114537445</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>99.65532131309313</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>89.05771575327937</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>1.752723827569872</v>
+        <v>2096</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.326385599242065</v>
+      </c>
+      <c r="G9" t="n">
         <v>330</v>
       </c>
-      <c r="F9" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>317</v>
       </c>
-      <c r="H9" t="n">
-        <v>324</v>
-      </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>321</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.242424242424243</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>96.06060606060606</v>
+      </c>
+      <c r="P9" t="n">
+        <v>97.27272727272728</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.9606060606060606</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9799072642967542</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>99.27556101003987</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>90.45630428186581</v>
       </c>
     </row>

--- a/model/Auswertung/Fließtext/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen/results.xlsx
@@ -550,64 +550,64 @@
         <v>1569</v>
       </c>
       <c r="B2" t="n">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0166</v>
+        <v>0.0089</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
       </c>
       <c r="G2" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1296</v>
+        <v>0.1019</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0741</v>
+        <v>0.0648</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9196</v>
+        <v>0.9369</v>
       </c>
       <c r="O2" t="n">
-        <v>0.945</v>
+        <v>0.9540999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9537</v>
+        <v>0.963</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.981</v>
+        <v>0.9811</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9364</v>
+        <v>0.9498</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9626</v>
+        <v>0.9674</v>
       </c>
       <c r="T2" t="n">
         <v>0.962</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8198</v>
+        <v>0.8606</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -620,16 +620,16 @@
         <v>3496</v>
       </c>
       <c r="B3" t="n">
-        <v>3462</v>
+        <v>3467</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0163</v>
+        <v>0.0134</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -650,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.022</v>
+        <v>0.0136</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0153</v>
+        <v>0.0068</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9832</v>
+        <v>0.9916</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9866</v>
+        <v>0.9949</v>
       </c>
       <c r="P3" t="n">
         <v>0.9949</v>
@@ -668,16 +668,16 @@
         <v>0.9983</v>
       </c>
       <c r="R3" t="n">
-        <v>0.989</v>
+        <v>0.9932</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9923999999999999</v>
+        <v>0.9966</v>
       </c>
       <c r="T3" t="n">
         <v>0.9976</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9172</v>
+        <v>0.9418</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -705,10 +705,10 @@
         <v>184</v>
       </c>
       <c r="G4" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" t="n">
         <v>11</v>
@@ -720,28 +720,28 @@
         <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2989</v>
+        <v>0.288</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2337</v>
+        <v>0.2228</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9272</v>
+        <v>0.9281</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9655</v>
+        <v>0.966</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7609</v>
+        <v>0.7717000000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7865</v>
+        <v>0.7978</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8358</v>
+        <v>0.8427</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8669</v>
+        <v>0.8738</v>
       </c>
       <c r="T4" t="n">
         <v>0.7984</v>
@@ -775,49 +775,49 @@
         <v>436</v>
       </c>
       <c r="G5" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
         <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1812</v>
+        <v>0.1743</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0849</v>
+        <v>0.0803</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8889</v>
+        <v>0.893</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9315</v>
+        <v>0.9359</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9358</v>
+        <v>0.9381</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9831</v>
+        <v>0.9832</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9117</v>
+        <v>0.915</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9566</v>
+        <v>0.959</v>
       </c>
       <c r="T5" t="n">
         <v>0.944</v>
       </c>
       <c r="U5" t="n">
-        <v>0.719</v>
+        <v>0.7312</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -830,58 +830,58 @@
         <v>1496</v>
       </c>
       <c r="B6" t="n">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0294</v>
+        <v>0.0241</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
       </c>
       <c r="G6" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1364</v>
+        <v>0.1263</v>
       </c>
       <c r="M6" t="n">
         <v>0.0556</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9254</v>
+        <v>0.9303</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9637</v>
+        <v>0.9639</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9394</v>
+        <v>0.9444</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9789</v>
+        <v>0.9791</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9323</v>
+        <v>0.9373</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.9714</v>
       </c>
       <c r="T6" t="n">
         <v>0.9441000000000001</v>
@@ -900,16 +900,16 @@
         <v>2025</v>
       </c>
       <c r="B7" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4133</v>
+        <v>0.4123</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -927,19 +927,19 @@
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>0.6194</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5896</v>
+        <v>0.5746</v>
       </c>
       <c r="N7" t="n">
         <v>0.6294</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6359</v>
+        <v>0.6425</v>
       </c>
       <c r="P7" t="n">
         <v>0.9254</v>
@@ -951,13 +951,13 @@
         <v>0.7492</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7584</v>
+        <v>0.7631</v>
       </c>
       <c r="T7" t="n">
         <v>0.6819</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3798</v>
+        <v>0.3805</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -970,28 +970,28 @@
         <v>2754</v>
       </c>
       <c r="B8" t="n">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0116</v>
+        <v>0.0102</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
       </c>
       <c r="G8" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1000,34 +1000,34 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0281</v>
+        <v>0.0216</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0238</v>
+        <v>0.0173</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9787</v>
+        <v>0.9829</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9808</v>
+        <v>0.985</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9935</v>
+        <v>0.9957</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9957</v>
+        <v>0.9978</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9861</v>
+        <v>0.9893</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9882</v>
+        <v>0.9913999999999999</v>
       </c>
       <c r="T8" t="n">
         <v>0.9966</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8905999999999999</v>
+        <v>0.9125</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1040,16 +1040,16 @@
         <v>2111</v>
       </c>
       <c r="B9" t="n">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0133</v>
+        <v>0.0123</v>
       </c>
       <c r="F9" t="n">
         <v>330</v>

--- a/model/Auswertung/Fließtext/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen/results.xlsx
@@ -547,10 +547,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="B2" t="n">
-        <v>1561</v>
+        <v>1548</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
@@ -559,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0089</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3496</v>
+        <v>3478</v>
       </c>
       <c r="B3" t="n">
-        <v>3467</v>
+        <v>3454</v>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0134</v>
+        <v>0.0109</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B4" t="n">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C4" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2367</v>
+        <v>0.2365</v>
       </c>
       <c r="F4" t="n">
         <v>184</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3065</v>
+        <v>3055</v>
       </c>
       <c r="B5" t="n">
-        <v>3046</v>
+        <v>3036</v>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0147</v>
+        <v>0.0137</v>
       </c>
       <c r="F5" t="n">
         <v>436</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B6" t="n">
-        <v>1472</v>
+        <v>1459</v>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
         <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0241</v>
+        <v>0.0236</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>1982</v>
+        <v>2002</v>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>792</v>
+        <v>755</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4123</v>
+        <v>0.3827</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2754</v>
+        <v>2735</v>
       </c>
       <c r="B8" t="n">
-        <v>2728</v>
+        <v>2711</v>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0102</v>
+        <v>0.0095</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2111</v>
+        <v>2098</v>
       </c>
       <c r="B9" t="n">
-        <v>2097</v>
+        <v>2084</v>
       </c>
       <c r="C9" t="n">
         <v>14</v>
@@ -1049,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0123</v>
+        <v>0.0124</v>
       </c>
       <c r="F9" t="n">
         <v>330</v>
